--- a/api-doc/grid.xlsx
+++ b/api-doc/grid.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="properties" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="87">
   <si>
     <t>名字</t>
   </si>
@@ -31,15 +31,274 @@
   </si>
   <si>
     <t>参数</t>
+  </si>
+  <si>
+    <t>cssPrefix</t>
+  </si>
+  <si>
+    <t>width</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>自定义样式前缀</t>
+  </si>
+  <si>
+    <t>grid宽度</t>
+  </si>
+  <si>
+    <t>height</t>
+  </si>
+  <si>
+    <t>grid高度</t>
+  </si>
+  <si>
+    <t>size</t>
+  </si>
+  <si>
+    <t>number</t>
+  </si>
+  <si>
+    <t>显示的数据条数</t>
+  </si>
+  <si>
+    <t>withCheckbox</t>
+  </si>
+  <si>
+    <t>boolean</t>
+  </si>
+  <si>
+    <t>是否包含checkbox列</t>
+  </si>
+  <si>
+    <t>checkboxWidth</t>
+  </si>
+  <si>
+    <t>自定义checkbox列宽度</t>
+  </si>
+  <si>
+    <t>withRowNumber</t>
+  </si>
+  <si>
+    <t>是否包含序号列</t>
+  </si>
+  <si>
+    <t>rowNumberWidth</t>
+  </si>
+  <si>
+    <t>自定义序号列宽度</t>
+  </si>
+  <si>
+    <t>multiSelect</t>
+  </si>
+  <si>
+    <t>是否是多选</t>
+  </si>
+  <si>
+    <t>frozenAlign</t>
+  </si>
+  <si>
+    <t>自定义冻结模式（'left' | 'right' | 'left-right' | ''）</t>
+  </si>
+  <si>
+    <t>theadHeight</t>
+  </si>
+  <si>
+    <t>自定义grid头部高度</t>
+  </si>
+  <si>
+    <t>trHeight</t>
+  </si>
+  <si>
+    <t>自定义grid行高度</t>
+  </si>
+  <si>
+    <t>columns</t>
+  </si>
+  <si>
+    <t>array</t>
+  </si>
+  <si>
+    <t>配置所包含的各列</t>
+  </si>
+  <si>
+    <t>[]</t>
+  </si>
+  <si>
+    <t>plugins</t>
+  </si>
+  <si>
+    <t>object</t>
+  </si>
+  <si>
+    <t>自定义依赖的插件，如：query, pagination</t>
+  </si>
+  <si>
+    <t>null</t>
+  </si>
+  <si>
+    <t>localData</t>
+  </si>
+  <si>
+    <t>加载本地数据</t>
+  </si>
+  <si>
+    <t>url</t>
+  </si>
+  <si>
+    <t>数据的远程请求路径</t>
+  </si>
+  <si>
+    <t>method</t>
+  </si>
+  <si>
+    <t>请求类型</t>
+  </si>
+  <si>
+    <t>cache</t>
+  </si>
+  <si>
+    <t>是否缓存数据</t>
+  </si>
+  <si>
+    <t>timeout</t>
+  </si>
+  <si>
+    <t>请求超时时间</t>
+  </si>
+  <si>
+    <t>root</t>
+  </si>
+  <si>
+    <t>路径根字段</t>
+  </si>
+  <si>
+    <t>params</t>
+  </si>
+  <si>
+    <t>请求参数</t>
+  </si>
+  <si>
+    <t>onAjaxBeforeSend</t>
+  </si>
+  <si>
+    <t>onAjaxComplete</t>
+  </si>
+  <si>
+    <t>onAjaxError</t>
+  </si>
+  <si>
+    <t>onAjaxSuccess</t>
+  </si>
+  <si>
+    <t>onBeforeRender</t>
+  </si>
+  <si>
+    <t>onAfterRender</t>
+  </si>
+  <si>
+    <t>onClickRow</t>
+  </si>
+  <si>
+    <t>onBeforeSort</t>
+  </si>
+  <si>
+    <t>onAfterSort</t>
+  </si>
+  <si>
+    <t>response</t>
+  </si>
+  <si>
+    <t>grid</t>
+  </si>
+  <si>
+    <t>tr</t>
+  </si>
+  <si>
+    <t>col</t>
+  </si>
+  <si>
+    <t>请求发送之前</t>
+  </si>
+  <si>
+    <t>请求发送完成</t>
+  </si>
+  <si>
+    <t>请求发送出错</t>
+  </si>
+  <si>
+    <t>请求发送成功</t>
+  </si>
+  <si>
+    <t>grid渲染之前</t>
+  </si>
+  <si>
+    <t>grid渲染之后</t>
+  </si>
+  <si>
+    <t>点击行时</t>
+  </si>
+  <si>
+    <t>排序之前</t>
+  </si>
+  <si>
+    <t>排序之后</t>
+  </si>
+  <si>
+    <t>loadData</t>
+  </si>
+  <si>
+    <t>触发grid加载</t>
+  </si>
+  <si>
+    <t>'s-'</t>
+  </si>
+  <si>
+    <t>'800px'</t>
+  </si>
+  <si>
+    <t>'200px'</t>
+  </si>
+  <si>
+    <t>'26px'</t>
+  </si>
+  <si>
+    <t>'44px'</t>
+  </si>
+  <si>
+    <t>''</t>
+  </si>
+  <si>
+    <t>'24px'</t>
+  </si>
+  <si>
+    <t>'GET'</t>
+  </si>
+  <si>
+    <t>'list'</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -66,12 +325,29 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -378,10 +654,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:H36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -392,7 +668,7 @@
     <col min="4" max="4" width="23.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -406,89 +682,536 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D2" s="1"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D3" s="1"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D4" s="1"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D5" s="1"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D6" s="1"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D7" s="1"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D8" s="1"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D9" s="2"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D10" s="2"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D11" s="1"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D12" s="2"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D13" s="2"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D14" s="2"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D15" s="2"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D16" s="2"/>
-    </row>
-    <row r="17" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D17" s="2"/>
-    </row>
-    <row r="18" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D18" s="2"/>
-    </row>
-    <row r="19" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D19" s="2"/>
-    </row>
-    <row r="20" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D20" s="2"/>
-    </row>
-    <row r="21" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D21" s="2"/>
-    </row>
-    <row r="22" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D22" s="2"/>
-    </row>
-    <row r="23" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D23" s="2"/>
-    </row>
-    <row r="24" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D24" s="2"/>
-    </row>
-    <row r="25" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D25" s="2"/>
+    <row r="2" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+    </row>
+    <row r="3" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+    </row>
+    <row r="4" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+    </row>
+    <row r="5" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="6">
+        <v>20</v>
+      </c>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+    </row>
+    <row r="6" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+    </row>
+    <row r="7" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+    </row>
+    <row r="8" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+    </row>
+    <row r="9" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+    </row>
+    <row r="10" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+    </row>
+    <row r="11" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+    </row>
+    <row r="12" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+    </row>
+    <row r="13" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+    </row>
+    <row r="14" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+    </row>
+    <row r="15" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+    </row>
+    <row r="16" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+    </row>
+    <row r="17" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+    </row>
+    <row r="18" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+    </row>
+    <row r="19" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D19" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+    </row>
+    <row r="20" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D20" s="7">
+        <v>3000</v>
+      </c>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+    </row>
+    <row r="21" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+    </row>
+    <row r="22" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+    </row>
+    <row r="23" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="4"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+    </row>
+    <row r="24" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="4"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+    </row>
+    <row r="25" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="4"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
+    </row>
+    <row r="26" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="4"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
+    </row>
+    <row r="27" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="4"/>
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
+    </row>
+    <row r="28" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="4"/>
+      <c r="B28" s="4"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="4"/>
+    </row>
+    <row r="29" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="4"/>
+      <c r="B29" s="4"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="4"/>
+    </row>
+    <row r="30" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A30" s="4"/>
+      <c r="B30" s="4"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="4"/>
+    </row>
+    <row r="31" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A31" s="4"/>
+      <c r="B31" s="4"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="4"/>
+      <c r="H31" s="4"/>
+    </row>
+    <row r="32" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A32" s="4"/>
+      <c r="B32" s="4"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="4"/>
+      <c r="H32" s="4"/>
+    </row>
+    <row r="33" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A33" s="4"/>
+      <c r="B33" s="4"/>
+      <c r="C33" s="4"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="4"/>
+      <c r="H33" s="4"/>
+    </row>
+    <row r="34" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A34" s="4"/>
+      <c r="B34" s="4"/>
+      <c r="C34" s="4"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="4"/>
+      <c r="G34" s="4"/>
+      <c r="H34" s="4"/>
+    </row>
+    <row r="35" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A35" s="4"/>
+      <c r="B35" s="4"/>
+      <c r="C35" s="4"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="4"/>
+      <c r="F35" s="4"/>
+      <c r="G35" s="4"/>
+      <c r="H35" s="4"/>
+    </row>
+    <row r="36" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A36" s="4"/>
+      <c r="B36" s="4"/>
+      <c r="C36" s="4"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="4"/>
+      <c r="G36" s="4"/>
+      <c r="H36" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -498,7 +1221,7 @@
     <col min="3" max="3" width="34" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -508,6 +1231,306 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
+    </row>
+    <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="2"/>
+    </row>
+    <row r="3" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="2"/>
+    </row>
+    <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="2"/>
+    </row>
+    <row r="5" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="2"/>
+    </row>
+    <row r="6" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="2"/>
+    </row>
+    <row r="7" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="2"/>
+    </row>
+    <row r="8" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="2"/>
+    </row>
+    <row r="9" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="2"/>
+    </row>
+    <row r="10" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="2"/>
+    </row>
+    <row r="11" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="2"/>
+    </row>
+    <row r="12" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="2"/>
+    </row>
+    <row r="13" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="2"/>
+    </row>
+    <row r="14" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="4"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="2"/>
+    </row>
+    <row r="15" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="4"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="2"/>
+    </row>
+    <row r="16" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="4"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="2"/>
+    </row>
+    <row r="17" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="4"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="2"/>
+    </row>
+    <row r="18" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="4"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="2"/>
+    </row>
+    <row r="19" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="4"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="2"/>
+    </row>
+    <row r="20" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="4"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="2"/>
+    </row>
+    <row r="21" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="4"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="2"/>
+    </row>
+    <row r="22" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="4"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="2"/>
+    </row>
+    <row r="23" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="4"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="2"/>
+    </row>
+    <row r="24" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="4"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="2"/>
+    </row>
+    <row r="25" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="4"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="2"/>
+    </row>
+    <row r="26" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="4"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="2"/>
+    </row>
+    <row r="27" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="4"/>
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="2"/>
+    </row>
+    <row r="28" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="4"/>
+      <c r="B28" s="4"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="2"/>
+    </row>
+    <row r="29" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="4"/>
+      <c r="B29" s="4"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="2"/>
+    </row>
+    <row r="30" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A30" s="4"/>
+      <c r="B30" s="4"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="2"/>
+    </row>
+    <row r="31" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A31" s="4"/>
+      <c r="B31" s="4"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+    </row>
+    <row r="32" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A32" s="4"/>
+      <c r="B32" s="4"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -516,10 +1539,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -540,6 +1563,17 @@
         <v>2</v>
       </c>
     </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" t="s">
+        <v>77</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/api-doc/grid.xlsx
+++ b/api-doc/grid.xlsx
@@ -11,12 +11,12 @@
     <sheet name="events" sheetId="2" r:id="rId2"/>
     <sheet name="methods" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="104">
   <si>
     <t>名字</t>
   </si>
@@ -277,6 +277,57 @@
   </si>
   <si>
     <t>'list'</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
+    <t>sortable</t>
+  </si>
+  <si>
+    <t>resizeable</t>
+  </si>
+  <si>
+    <t>frozen</t>
+  </si>
+  <si>
+    <t>align</t>
+  </si>
+  <si>
+    <t>renderer</t>
+  </si>
+  <si>
+    <t>function</t>
+  </si>
+  <si>
+    <t>列表头名</t>
+  </si>
+  <si>
+    <t>列字段名</t>
+  </si>
+  <si>
+    <t>该列是否可排序</t>
+  </si>
+  <si>
+    <t>是否可调整列宽</t>
+  </si>
+  <si>
+    <t>是否固定列</t>
+  </si>
+  <si>
+    <t>该列固定在左侧还是右侧（'left' | 'right'）</t>
+  </si>
+  <si>
+    <t>'left'</t>
+  </si>
+  <si>
+    <t>自定义渲染，参数（value, record, store）</t>
+  </si>
+  <si>
+    <t>列宽，如：'100px'</t>
+  </si>
+  <si>
+    <t>title</t>
   </si>
 </sst>
 </file>
@@ -325,7 +376,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -350,6 +401,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -657,7 +709,7 @@
   <dimension ref="A1:H36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -900,16 +952,16 @@
     </row>
     <row r="14" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
@@ -918,13 +970,13 @@
     </row>
     <row r="15" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>37</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D15" s="7" t="s">
         <v>39</v>
@@ -936,16 +988,16 @@
     </row>
     <row r="16" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>37</v>
+        <v>7</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>39</v>
+        <v>43</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>83</v>
       </c>
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
@@ -954,16 +1006,16 @@
     </row>
     <row r="17" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
@@ -972,16 +1024,16 @@
     </row>
     <row r="18" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="D18" s="9" t="s">
-        <v>85</v>
+        <v>47</v>
+      </c>
+      <c r="D18" s="7" t="b">
+        <v>0</v>
       </c>
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
@@ -990,16 +1042,16 @@
     </row>
     <row r="19" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="D19" s="7" t="b">
-        <v>0</v>
+        <v>49</v>
+      </c>
+      <c r="D19" s="7">
+        <v>3000</v>
       </c>
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>
@@ -1008,16 +1060,16 @@
     </row>
     <row r="20" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="D20" s="7">
-        <v>3000</v>
+        <v>51</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>86</v>
       </c>
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
@@ -1026,16 +1078,16 @@
     </row>
     <row r="21" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="D21" s="9" t="s">
-        <v>86</v>
+        <v>53</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>39</v>
       </c>
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
@@ -1044,16 +1096,16 @@
     </row>
     <row r="22" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E22" s="4"/>
       <c r="F22" s="4"/>
@@ -1061,9 +1113,15 @@
       <c r="H22" s="4"/>
     </row>
     <row r="23" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="4"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
+      <c r="A23" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>94</v>
+      </c>
       <c r="D23" s="7"/>
       <c r="E23" s="4"/>
       <c r="F23" s="4"/>
@@ -1071,9 +1129,15 @@
       <c r="H23" s="4"/>
     </row>
     <row r="24" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="4"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
+      <c r="A24" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>95</v>
+      </c>
       <c r="D24" s="7"/>
       <c r="E24" s="4"/>
       <c r="F24" s="4"/>
@@ -1081,9 +1145,15 @@
       <c r="H24" s="4"/>
     </row>
     <row r="25" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="4"/>
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
+      <c r="A25" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>102</v>
+      </c>
       <c r="D25" s="7"/>
       <c r="E25" s="4"/>
       <c r="F25" s="4"/>
@@ -1091,49 +1161,87 @@
       <c r="H25" s="4"/>
     </row>
     <row r="26" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="4"/>
-      <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
+      <c r="A26" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="D26" s="4" t="b">
+        <v>0</v>
+      </c>
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
       <c r="G26" s="4"/>
       <c r="H26" s="4"/>
     </row>
     <row r="27" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="4"/>
-      <c r="B27" s="4"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
+      <c r="A27" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="D27" s="4" t="b">
+        <v>0</v>
+      </c>
       <c r="E27" s="4"/>
       <c r="F27" s="4"/>
       <c r="G27" s="4"/>
       <c r="H27" s="4"/>
     </row>
     <row r="28" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="4"/>
-      <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
+      <c r="A28" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="E28" s="4"/>
       <c r="F28" s="4"/>
       <c r="G28" s="4"/>
       <c r="H28" s="4"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="4"/>
-      <c r="B29" s="4"/>
-      <c r="C29" s="4"/>
-      <c r="D29" s="4"/>
+      <c r="A29" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="D29" s="10" t="s">
+        <v>100</v>
+      </c>
       <c r="E29" s="4"/>
       <c r="F29" s="4"/>
       <c r="G29" s="4"/>
       <c r="H29" s="4"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="4"/>
-      <c r="B30" s="4"/>
-      <c r="C30" s="4"/>
+      <c r="A30" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>101</v>
+      </c>
       <c r="D30" s="4"/>
       <c r="E30" s="4"/>
       <c r="F30" s="4"/>

--- a/api-doc/grid.xlsx
+++ b/api-doc/grid.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="properties" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="102">
   <si>
     <t>名字</t>
   </si>
@@ -135,9 +135,6 @@
     <t>自定义依赖的插件，如：query, pagination</t>
   </si>
   <si>
-    <t>null</t>
-  </si>
-  <si>
     <t>localData</t>
   </si>
   <si>
@@ -252,33 +249,6 @@
     <t>触发grid加载</t>
   </si>
   <si>
-    <t>'s-'</t>
-  </si>
-  <si>
-    <t>'800px'</t>
-  </si>
-  <si>
-    <t>'200px'</t>
-  </si>
-  <si>
-    <t>'26px'</t>
-  </si>
-  <si>
-    <t>'44px'</t>
-  </si>
-  <si>
-    <t>''</t>
-  </si>
-  <si>
-    <t>'24px'</t>
-  </si>
-  <si>
-    <t>'GET'</t>
-  </si>
-  <si>
-    <t>'list'</t>
-  </si>
-  <si>
     <t>index</t>
   </si>
   <si>
@@ -318,9 +288,6 @@
     <t>该列固定在左侧还是右侧（'left' | 'right'）</t>
   </si>
   <si>
-    <t>'left'</t>
-  </si>
-  <si>
     <t>自定义渲染，参数（value, record, store）</t>
   </si>
   <si>
@@ -328,6 +295,33 @@
   </si>
   <si>
     <t>title</t>
+  </si>
+  <si>
+    <t>"s-"</t>
+  </si>
+  <si>
+    <t>"800px"</t>
+  </si>
+  <si>
+    <t>"200px"</t>
+  </si>
+  <si>
+    <t>"26px"</t>
+  </si>
+  <si>
+    <t>"44px"</t>
+  </si>
+  <si>
+    <t>"24px"</t>
+  </si>
+  <si>
+    <t>"GET"</t>
+  </si>
+  <si>
+    <t>"list"</t>
+  </si>
+  <si>
+    <t>"left"</t>
   </si>
 </sst>
 </file>
@@ -708,8 +702,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -745,7 +739,7 @@
         <v>8</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>78</v>
+        <v>93</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
@@ -763,7 +757,7 @@
         <v>9</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
@@ -781,7 +775,7 @@
         <v>11</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
@@ -835,7 +829,7 @@
         <v>19</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>81</v>
+        <v>96</v>
       </c>
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
@@ -871,7 +865,7 @@
         <v>23</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
@@ -906,9 +900,7 @@
       <c r="C11" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D11" s="5" t="s">
-        <v>83</v>
-      </c>
+      <c r="D11" s="5"/>
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
@@ -925,7 +917,7 @@
         <v>29</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>84</v>
+        <v>98</v>
       </c>
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
@@ -943,7 +935,7 @@
         <v>31</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>84</v>
+        <v>98</v>
       </c>
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
@@ -960,9 +952,7 @@
       <c r="C14" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D14" s="7" t="s">
-        <v>39</v>
-      </c>
+      <c r="D14" s="7"/>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
@@ -970,17 +960,15 @@
     </row>
     <row r="15" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>37</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>39</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="D15" s="7"/>
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
@@ -988,17 +976,15 @@
     </row>
     <row r="16" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="D16" s="9" t="s">
-        <v>83</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="D16" s="9"/>
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
@@ -1006,16 +992,16 @@
     </row>
     <row r="17" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>85</v>
+        <v>99</v>
       </c>
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
@@ -1024,13 +1010,13 @@
     </row>
     <row r="18" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>16</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D18" s="7" t="b">
         <v>0</v>
@@ -1042,13 +1028,13 @@
     </row>
     <row r="19" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D19" s="7">
         <v>3000</v>
@@ -1060,16 +1046,16 @@
     </row>
     <row r="20" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
@@ -1078,17 +1064,15 @@
     </row>
     <row r="21" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>37</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="D21" s="7" t="s">
-        <v>39</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="D21" s="7"/>
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
       <c r="G21" s="4"/>
@@ -1114,13 +1098,13 @@
     </row>
     <row r="23" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="D23" s="7"/>
       <c r="E23" s="4"/>
@@ -1130,13 +1114,13 @@
     </row>
     <row r="24" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="D24" s="7"/>
       <c r="E24" s="4"/>
@@ -1152,7 +1136,7 @@
         <v>7</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="D25" s="7"/>
       <c r="E25" s="4"/>
@@ -1162,13 +1146,13 @@
     </row>
     <row r="26" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>16</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="D26" s="4" t="b">
         <v>0</v>
@@ -1180,13 +1164,13 @@
     </row>
     <row r="27" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>16</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="D27" s="4" t="b">
         <v>0</v>
@@ -1198,13 +1182,13 @@
     </row>
     <row r="28" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>16</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="D28" s="4" t="s">
         <v>16</v>
@@ -1216,16 +1200,16 @@
     </row>
     <row r="29" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="D29" s="10" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E29" s="4"/>
       <c r="F29" s="4"/>
@@ -1234,13 +1218,13 @@
     </row>
     <row r="30" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="D30" s="4"/>
       <c r="E30" s="4"/>
@@ -1342,13 +1326,13 @@
     </row>
     <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
@@ -1356,13 +1340,13 @@
     </row>
     <row r="3" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
@@ -1370,13 +1354,13 @@
     </row>
     <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
@@ -1384,13 +1368,13 @@
     </row>
     <row r="5" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
@@ -1398,13 +1382,13 @@
     </row>
     <row r="6" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
@@ -1412,13 +1396,13 @@
     </row>
     <row r="7" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
@@ -1426,13 +1410,13 @@
     </row>
     <row r="8" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
@@ -1440,13 +1424,13 @@
     </row>
     <row r="9" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
@@ -1454,13 +1438,13 @@
     </row>
     <row r="10" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
@@ -1649,8 +1633,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1673,13 +1657,13 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2" t="s">
         <v>76</v>
-      </c>
-      <c r="B2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C2" t="s">
-        <v>77</v>
       </c>
     </row>
   </sheetData>

--- a/api-doc/grid.xlsx
+++ b/api-doc/grid.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="properties" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="108">
   <si>
     <t>名字</t>
   </si>
@@ -291,9 +291,6 @@
     <t>自定义渲染，参数（value, record, store）</t>
   </si>
   <si>
-    <t>列宽，如：'100px'</t>
-  </si>
-  <si>
     <t>title</t>
   </si>
   <si>
@@ -322,6 +319,27 @@
   </si>
   <si>
     <t>"left"</t>
+  </si>
+  <si>
+    <t>flex</t>
+  </si>
+  <si>
+    <t>列宽，单位： 'px'</t>
+  </si>
+  <si>
+    <t>列宽，百分比布局</t>
+  </si>
+  <si>
+    <t>rebuildAjaxParams</t>
+  </si>
+  <si>
+    <t>可重构grid请求的queryString</t>
+  </si>
+  <si>
+    <t>rebuildAjaxResponse</t>
+  </si>
+  <si>
+    <t>可重构grid请求后返回的结果</t>
   </si>
 </sst>
 </file>
@@ -702,8 +720,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -739,7 +757,7 @@
         <v>8</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
@@ -757,7 +775,7 @@
         <v>9</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
@@ -775,7 +793,7 @@
         <v>11</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
@@ -829,7 +847,7 @@
         <v>19</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
@@ -865,7 +883,7 @@
         <v>23</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
@@ -917,7 +935,7 @@
         <v>29</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
@@ -935,7 +953,7 @@
         <v>31</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
@@ -1001,7 +1019,7 @@
         <v>44</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
@@ -1055,7 +1073,7 @@
         <v>50</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
@@ -1098,7 +1116,7 @@
     </row>
     <row r="23" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>7</v>
@@ -1133,10 +1151,10 @@
         <v>6</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="D25" s="7"/>
       <c r="E25" s="4"/>
@@ -1146,17 +1164,15 @@
     </row>
     <row r="26" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
-        <v>78</v>
+        <v>101</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="D26" s="4" t="b">
-        <v>0</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="D26" s="7"/>
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
       <c r="G26" s="4"/>
@@ -1164,13 +1180,13 @@
     </row>
     <row r="27" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>16</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D27" s="4" t="b">
         <v>0</v>
@@ -1182,16 +1198,16 @@
     </row>
     <row r="28" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>16</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>16</v>
+        <v>87</v>
+      </c>
+      <c r="D28" s="4" t="b">
+        <v>0</v>
       </c>
       <c r="E28" s="4"/>
       <c r="F28" s="4"/>
@@ -1200,16 +1216,16 @@
     </row>
     <row r="29" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="D29" s="10" t="s">
-        <v>101</v>
+        <v>88</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="E29" s="4"/>
       <c r="F29" s="4"/>
@@ -1218,24 +1234,32 @@
     </row>
     <row r="30" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>83</v>
+        <v>7</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="D30" s="4"/>
+        <v>89</v>
+      </c>
+      <c r="D30" s="10" t="s">
+        <v>100</v>
+      </c>
       <c r="E30" s="4"/>
       <c r="F30" s="4"/>
       <c r="G30" s="4"/>
       <c r="H30" s="4"/>
     </row>
     <row r="31" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="4"/>
-      <c r="B31" s="4"/>
-      <c r="C31" s="4"/>
+      <c r="A31" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>90</v>
+      </c>
       <c r="D31" s="4"/>
       <c r="E31" s="4"/>
       <c r="F31" s="4"/>
@@ -1243,9 +1267,15 @@
       <c r="H31" s="4"/>
     </row>
     <row r="32" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="4"/>
-      <c r="B32" s="4"/>
-      <c r="C32" s="4"/>
+      <c r="A32" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>105</v>
+      </c>
       <c r="D32" s="4"/>
       <c r="E32" s="4"/>
       <c r="F32" s="4"/>
@@ -1253,9 +1283,15 @@
       <c r="H32" s="4"/>
     </row>
     <row r="33" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="4"/>
-      <c r="B33" s="4"/>
-      <c r="C33" s="4"/>
+      <c r="A33" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>107</v>
+      </c>
       <c r="D33" s="4"/>
       <c r="E33" s="4"/>
       <c r="F33" s="4"/>
@@ -1303,7 +1339,7 @@
   <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1633,7 +1669,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>

--- a/api-doc/grid.xlsx
+++ b/api-doc/grid.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="110">
   <si>
     <t>名字</t>
   </si>
@@ -340,6 +340,12 @@
   </si>
   <si>
     <t>可重构grid请求后返回的结果</t>
+  </si>
+  <si>
+    <t>autoLoad</t>
+  </si>
+  <si>
+    <t>第一次自动加载</t>
   </si>
 </sst>
 </file>
@@ -721,7 +727,7 @@
   <dimension ref="A1:H36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -802,16 +808,16 @@
     </row>
     <row r="5" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>12</v>
+        <v>108</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="6">
-        <v>20</v>
+        <v>109</v>
+      </c>
+      <c r="D5" s="6" t="b">
+        <v>0</v>
       </c>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
@@ -820,16 +826,16 @@
     </row>
     <row r="6" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" s="6" t="b">
-        <v>1</v>
+        <v>14</v>
+      </c>
+      <c r="D6" s="6">
+        <v>20</v>
       </c>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
@@ -838,16 +844,16 @@
     </row>
     <row r="7" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>95</v>
+        <v>17</v>
+      </c>
+      <c r="D7" s="6" t="b">
+        <v>1</v>
       </c>
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
@@ -856,16 +862,16 @@
     </row>
     <row r="8" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8" s="6" t="b">
-        <v>1</v>
+        <v>19</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>95</v>
       </c>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
@@ -874,16 +880,16 @@
     </row>
     <row r="9" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>96</v>
+        <v>21</v>
+      </c>
+      <c r="D9" s="6" t="b">
+        <v>1</v>
       </c>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
@@ -892,16 +898,16 @@
     </row>
     <row r="10" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10" s="7" t="b">
-        <v>1</v>
+        <v>23</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>96</v>
       </c>
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
@@ -910,15 +916,17 @@
     </row>
     <row r="11" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D11" s="5"/>
+        <v>25</v>
+      </c>
+      <c r="D11" s="7" t="b">
+        <v>1</v>
+      </c>
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
@@ -926,17 +934,15 @@
     </row>
     <row r="12" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>97</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="D12" s="5"/>
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
@@ -944,13 +950,13 @@
     </row>
     <row r="13" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D13" s="9" t="s">
         <v>97</v>
@@ -962,15 +968,17 @@
     </row>
     <row r="14" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>37</v>
+        <v>7</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="D14" s="7"/>
+        <v>31</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>97</v>
+      </c>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
@@ -978,13 +986,13 @@
     </row>
     <row r="15" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>37</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D15" s="7"/>
       <c r="E15" s="4"/>
@@ -994,15 +1002,15 @@
     </row>
     <row r="16" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D16" s="9"/>
+        <v>40</v>
+      </c>
+      <c r="D16" s="7"/>
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
@@ -1010,17 +1018,15 @@
     </row>
     <row r="17" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D17" s="9" t="s">
-        <v>98</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="D17" s="9"/>
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
@@ -1028,16 +1034,16 @@
     </row>
     <row r="18" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="D18" s="7" t="b">
-        <v>0</v>
+        <v>44</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>98</v>
       </c>
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
@@ -1046,16 +1052,16 @@
     </row>
     <row r="19" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="D19" s="7">
-        <v>3000</v>
+        <v>46</v>
+      </c>
+      <c r="D19" s="7" t="b">
+        <v>0</v>
       </c>
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>
@@ -1064,16 +1070,16 @@
     </row>
     <row r="20" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="D20" s="9" t="s">
-        <v>99</v>
+        <v>48</v>
+      </c>
+      <c r="D20" s="7">
+        <v>3000</v>
       </c>
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
@@ -1082,15 +1088,17 @@
     </row>
     <row r="21" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>37</v>
+        <v>7</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="D21" s="7"/>
+        <v>50</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>99</v>
+      </c>
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
       <c r="G21" s="4"/>
@@ -1098,17 +1106,15 @@
     </row>
     <row r="22" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D22" s="7" t="s">
-        <v>35</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="D22" s="7"/>
       <c r="E22" s="4"/>
       <c r="F22" s="4"/>
       <c r="G22" s="4"/>
@@ -1116,15 +1122,17 @@
     </row>
     <row r="23" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>91</v>
+        <v>32</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="D23" s="7"/>
+        <v>34</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>35</v>
+      </c>
       <c r="E23" s="4"/>
       <c r="F23" s="4"/>
       <c r="G23" s="4"/>
@@ -1132,13 +1140,13 @@
     </row>
     <row r="24" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D24" s="7"/>
       <c r="E24" s="4"/>
@@ -1148,13 +1156,13 @@
     </row>
     <row r="25" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
-        <v>6</v>
+        <v>77</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>102</v>
+        <v>85</v>
       </c>
       <c r="D25" s="7"/>
       <c r="E25" s="4"/>
@@ -1164,13 +1172,13 @@
     </row>
     <row r="26" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
-        <v>101</v>
+        <v>6</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D26" s="7"/>
       <c r="E26" s="4"/>
@@ -1180,17 +1188,15 @@
     </row>
     <row r="27" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
-        <v>78</v>
+        <v>101</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="D27" s="4" t="b">
-        <v>0</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="D27" s="7"/>
       <c r="E27" s="4"/>
       <c r="F27" s="4"/>
       <c r="G27" s="4"/>
@@ -1198,13 +1204,13 @@
     </row>
     <row r="28" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>16</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D28" s="4" t="b">
         <v>0</v>
@@ -1216,16 +1222,16 @@
     </row>
     <row r="29" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>16</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="D29" s="4" t="s">
-        <v>16</v>
+        <v>87</v>
+      </c>
+      <c r="D29" s="4" t="b">
+        <v>0</v>
       </c>
       <c r="E29" s="4"/>
       <c r="F29" s="4"/>
@@ -1234,16 +1240,16 @@
     </row>
     <row r="30" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="D30" s="10" t="s">
-        <v>100</v>
+        <v>88</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="E30" s="4"/>
       <c r="F30" s="4"/>
@@ -1252,15 +1258,17 @@
     </row>
     <row r="31" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>83</v>
+        <v>7</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="D31" s="4"/>
+        <v>89</v>
+      </c>
+      <c r="D31" s="10" t="s">
+        <v>100</v>
+      </c>
       <c r="E31" s="4"/>
       <c r="F31" s="4"/>
       <c r="G31" s="4"/>
@@ -1268,13 +1276,13 @@
     </row>
     <row r="32" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
-        <v>104</v>
+        <v>82</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>83</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>105</v>
+        <v>90</v>
       </c>
       <c r="D32" s="4"/>
       <c r="E32" s="4"/>
@@ -1284,13 +1292,13 @@
     </row>
     <row r="33" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>83</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D33" s="4"/>
       <c r="E33" s="4"/>
@@ -1299,9 +1307,15 @@
       <c r="H33" s="4"/>
     </row>
     <row r="34" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="4"/>
-      <c r="B34" s="4"/>
-      <c r="C34" s="4"/>
+      <c r="A34" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>107</v>
+      </c>
       <c r="D34" s="4"/>
       <c r="E34" s="4"/>
       <c r="F34" s="4"/>

--- a/api-doc/grid.xlsx
+++ b/api-doc/grid.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="113">
   <si>
     <t>名字</t>
   </si>
@@ -346,6 +346,15 @@
   </si>
   <si>
     <t>第一次自动加载</t>
+  </si>
+  <si>
+    <t>lang</t>
+  </si>
+  <si>
+    <t>"zh_CN"</t>
+  </si>
+  <si>
+    <t>多语言，（'zh_CN' | 'en_US'）</t>
   </si>
 </sst>
 </file>
@@ -727,15 +736,15 @@
   <dimension ref="A1:H36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.140625" customWidth="1"/>
-    <col min="2" max="2" width="18.28515625" customWidth="1"/>
-    <col min="3" max="3" width="66.140625" customWidth="1"/>
-    <col min="4" max="4" width="23.140625" customWidth="1"/>
+    <col min="1" max="1" width="18.125" customWidth="1"/>
+    <col min="2" max="2" width="18.25" customWidth="1"/>
+    <col min="3" max="3" width="66.125" customWidth="1"/>
+    <col min="4" max="4" width="23.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -772,16 +781,16 @@
     </row>
     <row r="3" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>6</v>
+        <v>110</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>9</v>
+        <v>112</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>93</v>
+        <v>111</v>
       </c>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
@@ -790,16 +799,16 @@
     </row>
     <row r="4" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>94</v>
+        <v>9</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>93</v>
       </c>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
@@ -808,16 +817,16 @@
     </row>
     <row r="5" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>108</v>
+        <v>10</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="D5" s="6" t="b">
-        <v>0</v>
+        <v>11</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>94</v>
       </c>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
@@ -826,16 +835,16 @@
     </row>
     <row r="6" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>12</v>
+        <v>108</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" s="6">
-        <v>20</v>
+        <v>109</v>
+      </c>
+      <c r="D6" s="6" t="b">
+        <v>0</v>
       </c>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
@@ -844,16 +853,16 @@
     </row>
     <row r="7" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" s="6" t="b">
-        <v>1</v>
+        <v>14</v>
+      </c>
+      <c r="D7" s="6">
+        <v>20</v>
       </c>
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
@@ -862,16 +871,16 @@
     </row>
     <row r="8" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>95</v>
+        <v>17</v>
+      </c>
+      <c r="D8" s="6" t="b">
+        <v>1</v>
       </c>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
@@ -880,16 +889,16 @@
     </row>
     <row r="9" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D9" s="6" t="b">
-        <v>1</v>
+        <v>19</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>95</v>
       </c>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
@@ -898,16 +907,16 @@
     </row>
     <row r="10" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>96</v>
+        <v>21</v>
+      </c>
+      <c r="D10" s="6" t="b">
+        <v>1</v>
       </c>
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
@@ -916,16 +925,16 @@
     </row>
     <row r="11" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" s="7" t="b">
-        <v>1</v>
+        <v>23</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>96</v>
       </c>
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
@@ -934,15 +943,17 @@
     </row>
     <row r="12" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D12" s="5"/>
+        <v>25</v>
+      </c>
+      <c r="D12" s="7" t="b">
+        <v>1</v>
+      </c>
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
@@ -950,17 +961,15 @@
     </row>
     <row r="13" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>97</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="D13" s="5"/>
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
@@ -968,13 +977,13 @@
     </row>
     <row r="14" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D14" s="9" t="s">
         <v>97</v>
@@ -986,15 +995,17 @@
     </row>
     <row r="15" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>37</v>
+        <v>7</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="D15" s="7"/>
+        <v>31</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>97</v>
+      </c>
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
@@ -1002,13 +1013,13 @@
     </row>
     <row r="16" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>37</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D16" s="7"/>
       <c r="E16" s="4"/>
@@ -1018,15 +1029,15 @@
     </row>
     <row r="17" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D17" s="9"/>
+        <v>40</v>
+      </c>
+      <c r="D17" s="7"/>
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
@@ -1034,17 +1045,15 @@
     </row>
     <row r="18" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D18" s="9" t="s">
-        <v>98</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="D18" s="9"/>
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
       <c r="G18" s="4"/>
@@ -1052,16 +1061,16 @@
     </row>
     <row r="19" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="D19" s="7" t="b">
-        <v>0</v>
+        <v>44</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>98</v>
       </c>
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>
@@ -1070,16 +1079,16 @@
     </row>
     <row r="20" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="D20" s="7">
-        <v>3000</v>
+        <v>46</v>
+      </c>
+      <c r="D20" s="7" t="b">
+        <v>0</v>
       </c>
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
@@ -1088,16 +1097,16 @@
     </row>
     <row r="21" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="D21" s="9" t="s">
-        <v>99</v>
+        <v>48</v>
+      </c>
+      <c r="D21" s="7">
+        <v>3000</v>
       </c>
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
@@ -1106,15 +1115,17 @@
     </row>
     <row r="22" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>37</v>
+        <v>7</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="D22" s="7"/>
+        <v>50</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>99</v>
+      </c>
       <c r="E22" s="4"/>
       <c r="F22" s="4"/>
       <c r="G22" s="4"/>
@@ -1122,17 +1133,15 @@
     </row>
     <row r="23" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D23" s="7" t="s">
-        <v>35</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="D23" s="7"/>
       <c r="E23" s="4"/>
       <c r="F23" s="4"/>
       <c r="G23" s="4"/>
@@ -1140,15 +1149,17 @@
     </row>
     <row r="24" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
-        <v>91</v>
+        <v>32</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="D24" s="7"/>
+        <v>34</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>35</v>
+      </c>
       <c r="E24" s="4"/>
       <c r="F24" s="4"/>
       <c r="G24" s="4"/>
@@ -1156,13 +1167,13 @@
     </row>
     <row r="25" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D25" s="7"/>
       <c r="E25" s="4"/>
@@ -1172,13 +1183,13 @@
     </row>
     <row r="26" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
-        <v>6</v>
+        <v>77</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>102</v>
+        <v>85</v>
       </c>
       <c r="D26" s="7"/>
       <c r="E26" s="4"/>
@@ -1188,13 +1199,13 @@
     </row>
     <row r="27" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
-        <v>101</v>
+        <v>6</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D27" s="7"/>
       <c r="E27" s="4"/>
@@ -1204,17 +1215,15 @@
     </row>
     <row r="28" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
-        <v>78</v>
+        <v>101</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="D28" s="4" t="b">
-        <v>0</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="D28" s="7"/>
       <c r="E28" s="4"/>
       <c r="F28" s="4"/>
       <c r="G28" s="4"/>
@@ -1222,13 +1231,13 @@
     </row>
     <row r="29" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>16</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D29" s="4" t="b">
         <v>0</v>
@@ -1240,16 +1249,16 @@
     </row>
     <row r="30" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B30" s="4" t="s">
         <v>16</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="D30" s="4" t="s">
-        <v>16</v>
+        <v>87</v>
+      </c>
+      <c r="D30" s="4" t="b">
+        <v>0</v>
       </c>
       <c r="E30" s="4"/>
       <c r="F30" s="4"/>
@@ -1258,16 +1267,16 @@
     </row>
     <row r="31" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="D31" s="10" t="s">
-        <v>100</v>
+        <v>88</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="E31" s="4"/>
       <c r="F31" s="4"/>
@@ -1276,15 +1285,17 @@
     </row>
     <row r="32" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>83</v>
+        <v>7</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="D32" s="4"/>
+        <v>89</v>
+      </c>
+      <c r="D32" s="10" t="s">
+        <v>100</v>
+      </c>
       <c r="E32" s="4"/>
       <c r="F32" s="4"/>
       <c r="G32" s="4"/>
@@ -1292,13 +1303,13 @@
     </row>
     <row r="33" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
-        <v>104</v>
+        <v>82</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>83</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>105</v>
+        <v>90</v>
       </c>
       <c r="D33" s="4"/>
       <c r="E33" s="4"/>
@@ -1308,13 +1319,13 @@
     </row>
     <row r="34" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B34" s="4" t="s">
         <v>83</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D34" s="4"/>
       <c r="E34" s="4"/>
@@ -1323,9 +1334,15 @@
       <c r="H34" s="4"/>
     </row>
     <row r="35" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="4"/>
-      <c r="B35" s="4"/>
-      <c r="C35" s="4"/>
+      <c r="A35" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>107</v>
+      </c>
       <c r="D35" s="4"/>
       <c r="E35" s="4"/>
       <c r="F35" s="4"/>
@@ -1358,8 +1375,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.5703125" customWidth="1"/>
-    <col min="2" max="2" width="25.140625" customWidth="1"/>
+    <col min="1" max="1" width="17.625" customWidth="1"/>
+    <col min="2" max="2" width="25.125" customWidth="1"/>
     <col min="3" max="3" width="34" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1689,8 +1706,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.28515625" customWidth="1"/>
-    <col min="2" max="2" width="27.85546875" customWidth="1"/>
+    <col min="1" max="1" width="15.25" customWidth="1"/>
+    <col min="2" max="2" width="27.875" customWidth="1"/>
     <col min="3" max="3" width="53" customWidth="1"/>
   </cols>
   <sheetData>

--- a/api-doc/grid.xlsx
+++ b/api-doc/grid.xlsx
@@ -351,10 +351,10 @@
     <t>lang</t>
   </si>
   <si>
-    <t>"zh_CN"</t>
-  </si>
-  <si>
-    <t>多语言，（'zh_CN' | 'en_US'）</t>
+    <t>"zh"</t>
+  </si>
+  <si>
+    <t>多语言，（'zh' | 'en'）</t>
   </si>
 </sst>
 </file>
@@ -736,7 +736,7 @@
   <dimension ref="A1:H36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
